--- a/February/0222/result1.xlsx
+++ b/February/0222/result1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosumosu\Desktop\February\0222\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\February\0222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6D2981-CBE6-4D21-825D-DCEBAC76F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD866300-430A-4610-9684-655105B50111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="-14175" windowWidth="21810" windowHeight="18945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7180" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1040,20 +1040,20 @@
         <v>1.4913407999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f>K13-P13</f>
+        <f t="shared" ref="Q13:Q18" si="3">K13-P13</f>
         <v>1.2806591999999999</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ref="R13:R14" si="3">Q13/K13*100</f>
+        <f t="shared" ref="R13:R14" si="4">Q13/K13*100</f>
         <v>46.199826839826841</v>
       </c>
       <c r="S13" s="3">
-        <f>Q13/B13</f>
+        <f t="shared" ref="S13:S18" si="5">Q13/B13</f>
         <v>0.64032959999999994</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3">
-        <f t="shared" ref="U13:U15" si="4">($S$14-S13)/$S$14*100</f>
+        <f t="shared" ref="U13:U15" si="6">($S$14-S13)/$S$14*100</f>
         <v>50.767993032336179</v>
       </c>
     </row>
@@ -1104,15 +1104,15 @@
         <v>2.9833632000000003</v>
       </c>
       <c r="Q14" s="3">
-        <f>K14-P14</f>
+        <f t="shared" si="3"/>
         <v>1.3006368000000004</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.360336134453785</v>
       </c>
       <c r="S14" s="3">
-        <f>Q14/B14</f>
+        <f t="shared" si="5"/>
         <v>1.3006368000000004</v>
       </c>
       <c r="T14" s="3"/>
@@ -1129,7 +1129,7 @@
         <v>100000000</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D18" si="5">B15*C15</f>
+        <f t="shared" ref="D15:D18" si="7">B15*C15</f>
         <v>200000000</v>
       </c>
       <c r="E15" s="3">
@@ -1145,15 +1145,15 @@
         <v>1.15E-3</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15:I16" si="6">G15-E15</f>
+        <f t="shared" ref="I15:I16" si="8">G15-E15</f>
         <v>17.546999999999997</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ref="J15:J16" si="7">H15-F15</f>
+        <f t="shared" ref="J15:J16" si="9">H15-F15</f>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ref="K15:K16" si="8">J15*3600</f>
+        <f t="shared" ref="K15:K16" si="10">J15*3600</f>
         <v>3.78</v>
       </c>
       <c r="L15" s="3"/>
@@ -1171,7 +1171,7 @@
         <v>2.4637940440563217</v>
       </c>
       <c r="Q15" s="3">
-        <f>K15-P15</f>
+        <f t="shared" si="3"/>
         <v>1.3162059559436781</v>
       </c>
       <c r="R15" s="3">
@@ -1179,12 +1179,12 @@
         <v>34.820263384753389</v>
       </c>
       <c r="S15" s="3">
-        <f>Q15/B15</f>
+        <f t="shared" si="5"/>
         <v>0.65810297797183903</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49.401479492826986</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>200000000</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000000</v>
       </c>
       <c r="E16" s="3">
@@ -1215,15 +1215,15 @@
         <v>1.83E-3</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35.088000000000001</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.75E-3</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3</v>
       </c>
       <c r="L16" s="3"/>
@@ -1235,7 +1235,7 @@
         <v>4.9267456213511283</v>
       </c>
       <c r="Q16" s="3">
-        <f>K16-P16</f>
+        <f t="shared" si="3"/>
         <v>1.3732543786488716</v>
       </c>
       <c r="R16" s="3">
@@ -1243,7 +1243,7 @@
         <v>21.797688549982087</v>
       </c>
       <c r="S16" s="3">
-        <f>Q16/B16</f>
+        <f t="shared" si="5"/>
         <v>1.3732543786488716</v>
       </c>
       <c r="T16" s="3"/>
@@ -1260,7 +1260,7 @@
         <v>100000000</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000000</v>
       </c>
       <c r="E17" s="3">
@@ -1276,15 +1276,15 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ref="I17:I18" si="9">G17-E17</f>
+        <f t="shared" ref="I17:I18" si="11">G17-E17</f>
         <v>5.8339999999999996</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ref="J17:J18" si="10">H17-F17</f>
+        <f t="shared" ref="J17:J18" si="12">H17-F17</f>
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K17:K18" si="11">J17*3600</f>
+        <f t="shared" ref="K17:K18" si="13">J17*3600</f>
         <v>2.556</v>
       </c>
       <c r="L17" s="3"/>
@@ -1302,7 +1302,7 @@
         <v>1.2073702364394991</v>
       </c>
       <c r="Q17" s="3">
-        <f>K17-P17</f>
+        <f t="shared" si="3"/>
         <v>1.3486297635605009</v>
       </c>
       <c r="R17" s="3">
@@ -1310,7 +1310,7 @@
         <v>52.763292784057157</v>
       </c>
       <c r="S17" s="3">
-        <f>Q17/B17</f>
+        <f t="shared" si="5"/>
         <v>0.67431488178025045</v>
       </c>
       <c r="T17" s="3"/>
@@ -1330,7 +1330,7 @@
         <v>200000000</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200000000</v>
       </c>
       <c r="E18" s="3">
@@ -1346,15 +1346,15 @@
         <v>1.15E-3</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.659000000000001</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.06E-3</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.8159999999999998</v>
       </c>
       <c r="L18" s="3"/>
@@ -1366,7 +1366,7 @@
         <v>2.412877885952712</v>
       </c>
       <c r="Q18" s="3">
-        <f>K18-P18</f>
+        <f t="shared" si="3"/>
         <v>1.4031221140472878</v>
       </c>
       <c r="R18" s="3">
@@ -1374,7 +1374,7 @@
         <v>36.769447433105029</v>
       </c>
       <c r="S18" s="3">
-        <f>Q18/B18</f>
+        <f t="shared" si="5"/>
         <v>1.4031221140472878</v>
       </c>
       <c r="T18" s="3"/>
@@ -1473,7 +1473,7 @@
         <v>100000000</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:D22" si="12">B21*C21</f>
+        <f t="shared" ref="D21:D22" si="14">B21*C21</f>
         <v>200000000</v>
       </c>
       <c r="E21" s="3">
@@ -1489,11 +1489,11 @@
         <v>1.1299999999999999E-3</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:I26" si="13">G21-E21</f>
+        <f t="shared" ref="I21:I26" si="15">G21-E21</f>
         <v>11.886999999999999</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ref="J21:J26" si="14">H21-F21</f>
+        <f t="shared" ref="J21:J26" si="16">H21-F21</f>
         <v>1.0499999999999999E-3</v>
       </c>
       <c r="K21" s="1">
@@ -1515,15 +1515,15 @@
         <v>2.0255448</v>
       </c>
       <c r="Q21" s="3">
-        <f>K21-P21</f>
+        <f t="shared" ref="Q21:Q26" si="17">K21-P21</f>
         <v>1.7544551999999998</v>
       </c>
       <c r="R21" s="3">
-        <f>Q21/K21*100</f>
+        <f t="shared" ref="R21:R26" si="18">Q21/K21*100</f>
         <v>46.414158730158725</v>
       </c>
       <c r="S21" s="3">
-        <f>Q21/B21</f>
+        <f t="shared" ref="S21:S26" si="19">Q21/B21</f>
         <v>0.87722759999999989</v>
       </c>
       <c r="T21" s="3"/>
@@ -1543,7 +1543,7 @@
         <v>200000000</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>200000000</v>
       </c>
       <c r="E22" s="3">
@@ -1559,11 +1559,11 @@
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23.76</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.6100000000000001E-3</v>
       </c>
       <c r="K22" s="1">
@@ -1579,15 +1579,15 @@
         <v>4.0487040000000007</v>
       </c>
       <c r="Q22" s="3">
-        <f>K22-P22</f>
+        <f t="shared" si="17"/>
         <v>1.7472959999999995</v>
       </c>
       <c r="R22" s="3">
-        <f>Q22/K22*100</f>
+        <f t="shared" si="18"/>
         <v>30.14658385093167</v>
       </c>
       <c r="S22" s="3">
-        <f>Q22/B22</f>
+        <f t="shared" si="19"/>
         <v>1.7472959999999995</v>
       </c>
       <c r="T22" s="3"/>
@@ -1604,7 +1604,7 @@
         <v>100000000</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:D24" si="15">B23*C23</f>
+        <f t="shared" ref="D23:D24" si="20">B23*C23</f>
         <v>200000000</v>
       </c>
       <c r="E23" s="3">
@@ -1620,15 +1620,15 @@
         <v>1.48E-3</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>23.814</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.42E-3</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:K26" si="16">J23*3600</f>
+        <f t="shared" ref="K23:K26" si="21">J23*3600</f>
         <v>5.1120000000000001</v>
       </c>
       <c r="L23" s="3"/>
@@ -1646,15 +1646,15 @@
         <v>3.3437505764607773</v>
       </c>
       <c r="Q23" s="3">
-        <f>K23-P23</f>
+        <f t="shared" si="17"/>
         <v>1.7682494235392228</v>
       </c>
       <c r="R23" s="3">
-        <f>Q23/K23*100</f>
+        <f t="shared" si="18"/>
         <v>34.590168692081825</v>
       </c>
       <c r="S23" s="3">
-        <f>Q23/B23</f>
+        <f t="shared" si="19"/>
         <v>0.88412471176961138</v>
       </c>
       <c r="T23" s="3"/>
@@ -1674,7 +1674,7 @@
         <v>200000000</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>200000000</v>
       </c>
       <c r="E24" s="3">
@@ -1690,15 +1690,15 @@
         <v>2.4399999999999999E-3</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>47.611000000000004</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.3599999999999997E-3</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>8.4959999999999987</v>
       </c>
       <c r="L24" s="3"/>
@@ -1709,15 +1709,15 @@
         <v>6.6851141637639238</v>
       </c>
       <c r="Q24" s="3">
-        <f>K24-P24</f>
+        <f t="shared" si="17"/>
         <v>1.8108858362360749</v>
       </c>
       <c r="R24" s="3">
-        <f>Q24/K24*100</f>
+        <f t="shared" si="18"/>
         <v>21.314569635547024</v>
       </c>
       <c r="S24" s="3">
-        <f>Q24/B24</f>
+        <f t="shared" si="19"/>
         <v>1.8108858362360749</v>
       </c>
       <c r="T24" s="3"/>
@@ -1734,7 +1734,7 @@
         <v>100000000</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:D26" si="17">B25*C25</f>
+        <f t="shared" ref="D25:D26" si="22">B25*C25</f>
         <v>200000000</v>
       </c>
       <c r="E25" s="3">
@@ -1750,15 +1750,15 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.9209999999999994</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.456</v>
       </c>
       <c r="L25" s="3"/>
@@ -1776,15 +1776,15 @@
         <v>1.6392834492350485</v>
       </c>
       <c r="Q25" s="3">
-        <f>K25-P25</f>
+        <f t="shared" si="17"/>
         <v>1.8167165507649514</v>
       </c>
       <c r="R25" s="3">
-        <f>Q25/K25*100</f>
+        <f t="shared" si="18"/>
         <v>52.567029825374753</v>
       </c>
       <c r="S25" s="3">
-        <f>Q25/B25</f>
+        <f t="shared" si="19"/>
         <v>0.90835827538247571</v>
       </c>
       <c r="T25" s="3"/>
@@ -1804,7 +1804,7 @@
         <v>200000000</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>200000000</v>
       </c>
       <c r="E26" s="3">
@@ -1820,15 +1820,15 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15.832000000000001</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4300000000000001E-3</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5.1480000000000006</v>
       </c>
       <c r="L26" s="3"/>
@@ -1840,15 +1840,15 @@
         <v>3.2764973574408902</v>
       </c>
       <c r="Q26" s="3">
-        <f>K26-P26</f>
+        <f t="shared" si="17"/>
         <v>1.8715026425591104</v>
       </c>
       <c r="R26" s="3">
-        <f>Q26/K26*100</f>
+        <f t="shared" si="18"/>
         <v>36.353975185685897</v>
       </c>
       <c r="S26" s="3">
-        <f>Q26/B26</f>
+        <f t="shared" si="19"/>
         <v>1.8715026425591104</v>
       </c>
       <c r="T26" s="3"/>
@@ -1924,7 +1924,7 @@
         <v>100000000</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:D30" si="18">B29*C29</f>
+        <f t="shared" ref="D29:D30" si="23">B29*C29</f>
         <v>200000000</v>
       </c>
       <c r="E29" s="3">
@@ -1940,15 +1940,15 @@
         <v>1.17E-3</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ref="I29:I30" si="19">G29-E29</f>
+        <f t="shared" ref="I29:I30" si="24">G29-E29</f>
         <v>12.509999999999998</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" ref="J29:J30" si="20">H29-F29</f>
+        <f t="shared" ref="J29:J30" si="25">H29-F29</f>
         <v>1.09E-3</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" ref="K29:K30" si="21">J29*3600</f>
+        <f t="shared" ref="K29:K30" si="26">J29*3600</f>
         <v>3.9239999999999999</v>
       </c>
       <c r="L29" s="3"/>
@@ -1966,15 +1966,15 @@
         <v>2.131704</v>
       </c>
       <c r="Q29" s="3">
-        <f>K29-P29</f>
+        <f t="shared" ref="Q29:Q34" si="27">K29-P29</f>
         <v>1.7922959999999999</v>
       </c>
       <c r="R29" s="3">
-        <f>Q29/K29*100</f>
+        <f t="shared" ref="R29:R34" si="28">Q29/K29*100</f>
         <v>45.675229357798166</v>
       </c>
       <c r="S29" s="3">
-        <f>Q29/B29</f>
+        <f t="shared" ref="S29:S34" si="29">Q29/B29</f>
         <v>0.89614799999999994</v>
       </c>
       <c r="T29" s="3"/>
@@ -1994,7 +1994,7 @@
         <v>200000000</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>200000000</v>
       </c>
       <c r="E30" s="3">
@@ -2010,15 +2010,15 @@
         <v>1.7700000000000001E-3</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>25.014000000000003</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.6900000000000001E-3</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6.0840000000000005</v>
       </c>
       <c r="L30" s="3"/>
@@ -2030,15 +2030,15 @@
         <v>4.2623856000000009</v>
       </c>
       <c r="Q30" s="3">
-        <f>K30-P30</f>
+        <f t="shared" si="27"/>
         <v>1.8216143999999996</v>
       </c>
       <c r="R30" s="3">
-        <f>Q30/K30*100</f>
+        <f t="shared" si="28"/>
         <v>29.941065088757391</v>
       </c>
       <c r="S30" s="3">
-        <f>Q30/B30</f>
+        <f t="shared" si="29"/>
         <v>1.8216143999999996</v>
       </c>
       <c r="T30" s="3"/>
@@ -2055,7 +2055,7 @@
         <v>100000000</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31:D34" si="22">B31*C31</f>
+        <f t="shared" ref="D31:D34" si="30">B31*C31</f>
         <v>200000000</v>
       </c>
       <c r="E31" s="3">
@@ -2097,15 +2097,15 @@
         <v>3.561107000932151</v>
       </c>
       <c r="Q31" s="3">
-        <f>K31-P31</f>
+        <f t="shared" si="27"/>
         <v>1.8388929990678493</v>
       </c>
       <c r="R31" s="3">
-        <f>Q31/K31*100</f>
+        <f t="shared" si="28"/>
         <v>34.053574056812018</v>
       </c>
       <c r="S31" s="3">
-        <f>Q31/B31</f>
+        <f t="shared" si="29"/>
         <v>0.91944649953392465</v>
       </c>
       <c r="T31" s="3"/>
@@ -2125,7 +2125,7 @@
         <v>200000000</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>200000000</v>
       </c>
       <c r="E32" s="3">
@@ -2161,15 +2161,15 @@
         <v>7.037686503458767</v>
       </c>
       <c r="Q32" s="3">
-        <f>K32-P32</f>
+        <f t="shared" si="27"/>
         <v>1.8903134965412338</v>
       </c>
       <c r="R32" s="3">
-        <f>Q32/K32*100</f>
+        <f t="shared" si="28"/>
         <v>21.172866224700197</v>
       </c>
       <c r="S32" s="3">
-        <f>Q32/B32</f>
+        <f t="shared" si="29"/>
         <v>1.8903134965412338</v>
       </c>
       <c r="T32" s="3"/>
@@ -2186,7 +2186,7 @@
         <v>100000000</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>200000000</v>
       </c>
       <c r="E33" s="3">
@@ -2202,15 +2202,15 @@
         <v>1.1199999999999999E-3</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" ref="I33:I34" si="23">G33-E33</f>
+        <f t="shared" ref="I33:I34" si="31">G33-E33</f>
         <v>9.2159999999999993</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ref="J33:J34" si="24">H33-F33</f>
+        <f t="shared" ref="J33:J34" si="32">H33-F33</f>
         <v>1.06E-3</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" ref="K33:K34" si="25">J33*3600</f>
+        <f t="shared" ref="K33:K34" si="33">J33*3600</f>
         <v>3.8159999999999998</v>
       </c>
       <c r="L33" s="3"/>
@@ -2228,15 +2228,15 @@
         <v>1.9072890125173851</v>
       </c>
       <c r="Q33" s="3">
-        <f>K33-P33</f>
+        <f t="shared" si="27"/>
         <v>1.9087109874826147</v>
       </c>
       <c r="R33" s="3">
-        <f>Q33/K33*100</f>
+        <f t="shared" si="28"/>
         <v>50.018631747447969</v>
       </c>
       <c r="S33" s="3">
-        <f>Q33/B33</f>
+        <f t="shared" si="29"/>
         <v>0.95435549374130735</v>
       </c>
       <c r="T33" s="3"/>
@@ -2256,7 +2256,7 @@
         <v>200000000</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>200000000</v>
       </c>
       <c r="E34" s="3">
@@ -2272,15 +2272,15 @@
         <v>1.5900000000000001E-3</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>16.664000000000001</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1.5E-3</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>5.4</v>
       </c>
       <c r="L34" s="3"/>
@@ -2292,15 +2292,15 @@
         <v>3.448683171070932</v>
       </c>
       <c r="Q34" s="3">
-        <f>K34-P34</f>
+        <f t="shared" si="27"/>
         <v>1.9513168289290683</v>
       </c>
       <c r="R34" s="3">
-        <f>Q34/K34*100</f>
+        <f t="shared" si="28"/>
         <v>36.135496832019783</v>
       </c>
       <c r="S34" s="3">
-        <f>Q34/B34</f>
+        <f t="shared" si="29"/>
         <v>1.9513168289290683</v>
       </c>
       <c r="T34" s="3"/>
@@ -2376,7 +2376,7 @@
         <v>100000000</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:D38" si="26">B37*C37</f>
+        <f t="shared" ref="D37:D38" si="34">B37*C37</f>
         <v>200000000</v>
       </c>
       <c r="E37" s="3">
@@ -2392,15 +2392,15 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ref="I37:I38" si="27">G37-E37</f>
+        <f t="shared" ref="I37:I38" si="35">G37-E37</f>
         <v>12.819000000000001</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37:J38" si="28">H37-F37</f>
+        <f t="shared" ref="J37:J38" si="36">H37-F37</f>
         <v>1.1100000000000001E-3</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" ref="K37:K38" si="29">J37*3600</f>
+        <f t="shared" ref="K37:K38" si="37">J37*3600</f>
         <v>3.9960000000000004</v>
       </c>
       <c r="L37" s="3"/>
@@ -2418,15 +2418,15 @@
         <v>2.1843576000000002</v>
       </c>
       <c r="Q37" s="3">
-        <f>K37-P37</f>
+        <f t="shared" ref="Q37:Q42" si="38">K37-P37</f>
         <v>1.8116424000000002</v>
       </c>
       <c r="R37" s="3">
-        <f>Q37/K37*100</f>
+        <f t="shared" ref="R37:R42" si="39">Q37/K37*100</f>
         <v>45.336396396396395</v>
       </c>
       <c r="S37" s="3">
-        <f>Q37/B37</f>
+        <f t="shared" ref="S37:S42" si="40">Q37/B37</f>
         <v>0.9058212000000001</v>
       </c>
       <c r="T37" s="3"/>
@@ -2446,7 +2446,7 @@
         <v>200000000</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>200000000</v>
       </c>
       <c r="E38" s="3">
@@ -2462,15 +2462,15 @@
         <v>1.7799999999999999E-3</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>25.015000000000001</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1.6899999999999999E-3</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>6.0839999999999996</v>
       </c>
       <c r="L38" s="3"/>
@@ -2482,15 +2482,15 @@
         <v>4.2625560000000009</v>
       </c>
       <c r="Q38" s="3">
-        <f>K38-P38</f>
+        <f t="shared" si="38"/>
         <v>1.8214439999999987</v>
       </c>
       <c r="R38" s="3">
-        <f>Q38/K38*100</f>
+        <f t="shared" si="39"/>
         <v>29.938264299802743</v>
       </c>
       <c r="S38" s="3">
-        <f>Q38/B38</f>
+        <f t="shared" si="40"/>
         <v>1.8214439999999987</v>
       </c>
       <c r="T38" s="3"/>
@@ -2507,7 +2507,7 @@
         <v>100000000</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" ref="D39:D40" si="30">B39*C39</f>
+        <f t="shared" ref="D39:D40" si="41">B39*C39</f>
         <v>200000000</v>
       </c>
       <c r="E39" s="3">
@@ -2549,15 +2549,15 @@
         <v>3.5608261786783122</v>
       </c>
       <c r="Q39" s="3">
-        <f>K39-P39</f>
+        <f t="shared" si="38"/>
         <v>1.8391738213216882</v>
       </c>
       <c r="R39" s="3">
-        <f>Q39/K39*100</f>
+        <f t="shared" si="39"/>
         <v>34.058774468920149</v>
       </c>
       <c r="S39" s="3">
-        <f>Q39/B39</f>
+        <f t="shared" si="40"/>
         <v>0.91958691066084408</v>
       </c>
       <c r="T39" s="3"/>
@@ -2574,7 +2574,7 @@
         <v>200000000</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="41"/>
         <v>200000000</v>
       </c>
       <c r="E40" s="3">
@@ -2610,15 +2610,15 @@
         <v>7.0372652700780085</v>
       </c>
       <c r="Q40" s="3">
-        <f>K40-P40</f>
+        <f t="shared" si="38"/>
         <v>1.8907347299219923</v>
       </c>
       <c r="R40" s="3">
-        <f>Q40/K40*100</f>
+        <f t="shared" si="39"/>
         <v>21.177584340524106</v>
       </c>
       <c r="S40" s="3">
-        <f>Q40/B40</f>
+        <f t="shared" si="40"/>
         <v>1.8907347299219923</v>
       </c>
       <c r="T40" s="3"/>
@@ -2635,7 +2635,7 @@
         <v>100000000</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ref="D41:D42" si="31">B41*C41</f>
+        <f t="shared" ref="D41:D42" si="42">B41*C41</f>
         <v>200000000</v>
       </c>
       <c r="E41" s="3">
@@ -2651,15 +2651,15 @@
         <v>1.1199999999999999E-3</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41:I42" si="32">G41-E41</f>
+        <f t="shared" ref="I41:I42" si="43">G41-E41</f>
         <v>8.5949999999999989</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" ref="J41:J42" si="33">H41-F41</f>
+        <f t="shared" ref="J41:J42" si="44">H41-F41</f>
         <v>1.0299999999999999E-3</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ref="K41:K42" si="34">J41*3600</f>
+        <f t="shared" ref="K41:K42" si="45">J41*3600</f>
         <v>3.7079999999999997</v>
       </c>
       <c r="L41" s="3"/>
@@ -2677,15 +2677,15 @@
         <v>1.7787705146036159</v>
       </c>
       <c r="Q41" s="3">
-        <f>K41-P41</f>
+        <f t="shared" si="38"/>
         <v>1.9292294853963838</v>
       </c>
       <c r="R41" s="3">
-        <f>Q41/K41*100</f>
+        <f t="shared" si="39"/>
         <v>52.028842648230423</v>
       </c>
       <c r="S41" s="3">
-        <f>Q41/B41</f>
+        <f t="shared" si="40"/>
         <v>0.96461474269819192</v>
       </c>
       <c r="T41" s="3"/>
@@ -2705,7 +2705,7 @@
         <v>200000000</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="42"/>
         <v>200000000</v>
       </c>
       <c r="E42" s="3">
@@ -2721,15 +2721,15 @@
         <v>1.5900000000000001E-3</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>16.667999999999999</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="44"/>
         <v>1.5E-3</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>5.4</v>
       </c>
       <c r="L42" s="3"/>
@@ -2741,15 +2741,15 @@
         <v>3.4495109874826144</v>
       </c>
       <c r="Q42" s="3">
-        <f>K42-P42</f>
+        <f t="shared" si="38"/>
         <v>1.9504890125173859</v>
       </c>
       <c r="R42" s="3">
-        <f>Q42/K42*100</f>
+        <f t="shared" si="39"/>
         <v>36.12016689847011</v>
       </c>
       <c r="S42" s="3">
-        <f>Q42/B42</f>
+        <f t="shared" si="40"/>
         <v>1.9504890125173859</v>
       </c>
       <c r="T42" s="3"/>
@@ -2825,7 +2825,7 @@
         <v>100000000</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ref="D45:D46" si="35">B45*C45</f>
+        <f t="shared" ref="D45:D46" si="46">B45*C45</f>
         <v>200000000</v>
       </c>
       <c r="E45" s="3">
@@ -2841,15 +2841,15 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" ref="I45:I46" si="36">G45-E45</f>
+        <f t="shared" ref="I45:I46" si="47">G45-E45</f>
         <v>12.711</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:J46" si="37">H45-F45</f>
+        <f t="shared" ref="J45:J46" si="48">H45-F45</f>
         <v>1.1199999999999999E-3</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" ref="K45:K46" si="38">J45*3600</f>
+        <f t="shared" ref="K45:K46" si="49">J45*3600</f>
         <v>4.032</v>
       </c>
       <c r="L45" s="3"/>
@@ -2867,15 +2867,15 @@
         <v>2.1659544000000004</v>
       </c>
       <c r="Q45" s="3">
-        <f>K45-P45</f>
+        <f t="shared" ref="Q45:Q50" si="50">K45-P45</f>
         <v>1.8660455999999996</v>
       </c>
       <c r="R45" s="3">
-        <f>Q45/K45*100</f>
+        <f t="shared" ref="R45:R50" si="51">Q45/K45*100</f>
         <v>46.280892857142845</v>
       </c>
       <c r="S45" s="3">
-        <f>Q45/B45</f>
+        <f t="shared" ref="S45:S50" si="52">Q45/B45</f>
         <v>0.93302279999999982</v>
       </c>
       <c r="T45" s="3"/>
@@ -2895,7 +2895,7 @@
         <v>200000000</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>200000000</v>
       </c>
       <c r="E46" s="3">
@@ -2911,15 +2911,15 @@
         <v>1.7899999999999999E-3</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>25.018999999999998</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="49"/>
         <v>6.1199999999999992</v>
       </c>
       <c r="L46" s="3"/>
@@ -2931,15 +2931,15 @@
         <v>4.2632376000000001</v>
       </c>
       <c r="Q46" s="3">
-        <f>K46-P46</f>
+        <f t="shared" si="50"/>
         <v>1.8567623999999991</v>
       </c>
       <c r="R46" s="3">
-        <f>Q46/K46*100</f>
+        <f t="shared" si="51"/>
         <v>30.339254901960771</v>
       </c>
       <c r="S46" s="3">
-        <f>Q46/B46</f>
+        <f t="shared" si="52"/>
         <v>1.8567623999999991</v>
       </c>
       <c r="T46" s="3"/>
@@ -2956,7 +2956,7 @@
         <v>100000000</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" ref="D47:D50" si="39">B47*C47</f>
+        <f t="shared" ref="D47:D50" si="53">B47*C47</f>
         <v>200000000</v>
       </c>
       <c r="E47" s="3">
@@ -2972,15 +2972,15 @@
         <v>1.57E-3</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:I50" si="40">G47-E47</f>
+        <f t="shared" ref="I47:I50" si="54">G47-E47</f>
         <v>25.654000000000003</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ref="J47:J50" si="41">H47-F47</f>
+        <f t="shared" ref="J47:J50" si="55">H47-F47</f>
         <v>1.5299999999999999E-3</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" ref="K47:K50" si="42">J47*3600</f>
+        <f t="shared" ref="K47:K50" si="56">J47*3600</f>
         <v>5.508</v>
       </c>
       <c r="L47" s="3"/>
@@ -2998,15 +2998,15 @@
         <v>3.6021070499926426</v>
       </c>
       <c r="Q47" s="3">
-        <f>K47-P47</f>
+        <f t="shared" si="50"/>
         <v>1.9058929500073574</v>
       </c>
       <c r="R47" s="3">
-        <f>Q47/K47*100</f>
+        <f t="shared" si="51"/>
         <v>34.602268518652096</v>
       </c>
       <c r="S47" s="3">
-        <f>Q47/B47</f>
+        <f t="shared" si="52"/>
         <v>0.95294647500367868</v>
       </c>
       <c r="T47" s="3"/>
@@ -3023,7 +3023,7 @@
         <v>200000000</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>200000000</v>
       </c>
       <c r="E48" s="3">
@@ -3039,15 +3039,15 @@
         <v>2.5799999999999998E-3</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>50.117000000000004</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>2.4999999999999996E-3</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>8.9999999999999982</v>
       </c>
       <c r="L48" s="3"/>
@@ -3059,15 +3059,15 @@
         <v>7.0369844478241701</v>
       </c>
       <c r="Q48" s="3">
-        <f>K48-P48</f>
+        <f t="shared" si="50"/>
         <v>1.9630155521758281</v>
       </c>
       <c r="R48" s="3">
-        <f>Q48/K48*100</f>
+        <f t="shared" si="51"/>
         <v>21.811283913064759</v>
       </c>
       <c r="S48" s="3">
-        <f>Q48/B48</f>
+        <f t="shared" si="52"/>
         <v>1.9630155521758281</v>
       </c>
       <c r="T48" s="3"/>
@@ -3084,7 +3084,7 @@
         <v>100000000</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>200000000</v>
       </c>
       <c r="E49" s="3">
@@ -3100,15 +3100,15 @@
         <v>1.1299999999999999E-3</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>8.5939999999999994</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>1.0399999999999999E-3</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>3.7439999999999998</v>
       </c>
       <c r="L49" s="3"/>
@@ -3126,15 +3126,15 @@
         <v>1.7785635605006953</v>
       </c>
       <c r="Q49" s="3">
-        <f>K49-P49</f>
+        <f t="shared" si="50"/>
         <v>1.9654364394993045</v>
       </c>
       <c r="R49" s="3">
-        <f>Q49/K49*100</f>
+        <f t="shared" si="51"/>
         <v>52.495631396883134</v>
       </c>
       <c r="S49" s="3">
-        <f>Q49/B49</f>
+        <f t="shared" si="52"/>
         <v>0.98271821974965223</v>
       </c>
       <c r="T49" s="3"/>
@@ -3154,7 +3154,7 @@
         <v>200000000</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="53"/>
         <v>200000000</v>
       </c>
       <c r="E50" s="3">
@@ -3170,15 +3170,15 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="54"/>
         <v>16.667999999999999</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="55"/>
         <v>1.5100000000000001E-3</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="56"/>
         <v>5.4359999999999999</v>
       </c>
       <c r="L50" s="3"/>
@@ -3190,15 +3190,15 @@
         <v>3.4495109874826144</v>
       </c>
       <c r="Q50" s="3">
-        <f>K50-P50</f>
+        <f t="shared" si="50"/>
         <v>1.9864890125173855</v>
       </c>
       <c r="R50" s="3">
-        <f>Q50/K50*100</f>
+        <f t="shared" si="51"/>
         <v>36.543212150798112</v>
       </c>
       <c r="S50" s="3">
-        <f>Q50/B50</f>
+        <f t="shared" si="52"/>
         <v>1.9864890125173855</v>
       </c>
       <c r="T50" s="3"/>
@@ -3274,7 +3274,7 @@
         <v>100000000</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" ref="D53:D54" si="43">B53*C53</f>
+        <f t="shared" ref="D53:D54" si="57">B53*C53</f>
         <v>200000000</v>
       </c>
       <c r="E53" s="3">
@@ -3290,15 +3290,15 @@
         <v>1.4300000000000001E-3</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" ref="I53:I54" si="44">G53-E53</f>
+        <f t="shared" ref="I53:I54" si="58">G53-E53</f>
         <v>16.997999999999998</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" ref="J53:J54" si="45">H53-F53</f>
+        <f t="shared" ref="J53:J54" si="59">H53-F53</f>
         <v>1.34E-3</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" ref="K53:K54" si="46">J53*3600</f>
+        <f t="shared" ref="K53:K54" si="60">J53*3600</f>
         <v>4.8239999999999998</v>
       </c>
       <c r="L53" s="3"/>
@@ -3316,15 +3316,15 @@
         <v>2.8964591999999998</v>
       </c>
       <c r="Q53" s="3">
-        <f>K53-P53</f>
+        <f t="shared" ref="Q53:Q58" si="61">K53-P53</f>
         <v>1.9275408000000001</v>
       </c>
       <c r="R53" s="3">
-        <f>Q53/K53*100</f>
+        <f t="shared" ref="R53:R58" si="62">Q53/K53*100</f>
         <v>39.957313432835825</v>
       </c>
       <c r="S53" s="3">
-        <f>Q53/B53</f>
+        <f t="shared" ref="S53:S58" si="63">Q53/B53</f>
         <v>0.96377040000000003</v>
       </c>
       <c r="T53" s="3"/>
@@ -3344,7 +3344,7 @@
         <v>200000000</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="57"/>
         <v>200000000</v>
       </c>
       <c r="E54" s="3">
@@ -3360,15 +3360,15 @@
         <v>2.2200000000000002E-3</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>33.805000000000007</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>2.14E-3</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>7.7039999999999997</v>
       </c>
       <c r="L54" s="3"/>
@@ -3380,15 +3380,15 @@
         <v>5.760372000000002</v>
       </c>
       <c r="Q54" s="3">
-        <f>K54-P54</f>
+        <f t="shared" si="61"/>
         <v>1.9436279999999977</v>
       </c>
       <c r="R54" s="3">
-        <f>Q54/K54*100</f>
+        <f t="shared" si="62"/>
         <v>25.228816199376919</v>
       </c>
       <c r="S54" s="3">
-        <f>Q54/B54</f>
+        <f t="shared" si="63"/>
         <v>1.9436279999999977</v>
       </c>
       <c r="T54" s="3"/>
@@ -3405,7 +3405,7 @@
         <v>100000000</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55:D58" si="47">B55*C55</f>
+        <f t="shared" ref="D55:D58" si="64">B55*C55</f>
         <v>200000000</v>
       </c>
       <c r="E55" s="3">
@@ -3421,15 +3421,15 @@
         <v>1.98E-3</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" ref="I55:I56" si="48">G55-E55</f>
+        <f t="shared" ref="I55:I56" si="65">G55-E55</f>
         <v>34.623999999999995</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" ref="J55:J56" si="49">H55-F55</f>
+        <f t="shared" ref="J55:J56" si="66">H55-F55</f>
         <v>1.9E-3</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" ref="K55:K56" si="50">J55*3600</f>
+        <f t="shared" ref="K55:K56" si="67">J55*3600</f>
         <v>6.84</v>
       </c>
       <c r="L55" s="3"/>
@@ -3447,15 +3447,15 @@
         <v>4.8615948584604833</v>
       </c>
       <c r="Q55" s="3">
-        <f>K55-P55</f>
+        <f t="shared" si="61"/>
         <v>1.9784051415395165</v>
       </c>
       <c r="R55" s="3">
-        <f>Q55/K55*100</f>
+        <f t="shared" si="62"/>
         <v>28.924051776893517</v>
       </c>
       <c r="S55" s="3">
-        <f>Q55/B55</f>
+        <f t="shared" si="63"/>
         <v>0.98920257076975826</v>
       </c>
       <c r="T55" s="3"/>
@@ -3475,7 +3475,7 @@
         <v>200000000</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>200000000</v>
       </c>
       <c r="E56" s="3">
@@ -3491,15 +3491,15 @@
         <v>3.2799999999999999E-3</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="65"/>
         <v>67.685000000000002</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>3.1999999999999997E-3</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="67"/>
         <v>11.52</v>
       </c>
       <c r="L56" s="3"/>
@@ -3511,15 +3511,15 @@
         <v>9.5037271255458027</v>
       </c>
       <c r="Q56" s="3">
-        <f>K56-P56</f>
+        <f t="shared" si="61"/>
         <v>2.0162728744541969</v>
       </c>
       <c r="R56" s="3">
-        <f>Q56/K56*100</f>
+        <f t="shared" si="62"/>
         <v>17.50236870185935</v>
       </c>
       <c r="S56" s="3">
-        <f>Q56/B56</f>
+        <f t="shared" si="63"/>
         <v>2.0162728744541969</v>
       </c>
       <c r="T56" s="3"/>
@@ -3536,7 +3536,7 @@
         <v>100000000</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>200000000</v>
       </c>
       <c r="E57" s="3">
@@ -3552,15 +3552,15 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" ref="I57:I58" si="51">G57-E57</f>
+        <f t="shared" ref="I57:I58" si="68">G57-E57</f>
         <v>11.252000000000002</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" ref="J57:J58" si="52">H57-F57</f>
+        <f t="shared" ref="J57:J58" si="69">H57-F57</f>
         <v>1.2099999999999999E-3</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ref="K57:K58" si="53">J57*3600</f>
+        <f t="shared" ref="K57:K58" si="70">J57*3600</f>
         <v>4.3559999999999999</v>
       </c>
       <c r="L57" s="3"/>
@@ -3578,15 +3578,15 @@
         <v>2.328647566063978</v>
       </c>
       <c r="Q57" s="3">
-        <f>K57-P57</f>
+        <f t="shared" si="61"/>
         <v>2.0273524339360218</v>
       </c>
       <c r="R57" s="3">
-        <f>Q57/K57*100</f>
+        <f t="shared" si="62"/>
         <v>46.541607757943574</v>
       </c>
       <c r="S57" s="3">
-        <f>Q57/B57</f>
+        <f t="shared" si="63"/>
         <v>1.0136762169680109</v>
       </c>
       <c r="T57" s="3"/>
@@ -3606,7 +3606,7 @@
         <v>200000000</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>200000000</v>
       </c>
       <c r="E58" s="3">
@@ -3622,15 +3622,15 @@
         <v>1.9499999999999999E-3</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="68"/>
         <v>22.500999999999998</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="69"/>
         <v>1.8599999999999999E-3</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="70"/>
         <v>6.6959999999999997</v>
       </c>
       <c r="L58" s="3"/>
@@ -3642,15 +3642,15 @@
         <v>4.6566742698191925</v>
       </c>
       <c r="Q58" s="3">
-        <f>K58-P58</f>
+        <f t="shared" si="61"/>
         <v>2.0393257301808072</v>
       </c>
       <c r="R58" s="3">
-        <f>Q58/K58*100</f>
+        <f t="shared" si="62"/>
         <v>30.455880080358533</v>
       </c>
       <c r="S58" s="3">
-        <f>Q58/B58</f>
+        <f t="shared" si="63"/>
         <v>2.0393257301808072</v>
       </c>
       <c r="T58" s="3"/>
@@ -3726,7 +3726,7 @@
         <v>100000000</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ref="D61:D62" si="54">B61*C61</f>
+        <f t="shared" ref="D61:D62" si="71">B61*C61</f>
         <v>200000000</v>
       </c>
       <c r="E61" s="3">
@@ -3742,11 +3742,11 @@
         <v>2.5899999999999999E-3</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" ref="I61:I62" si="55">G61-E61</f>
+        <f t="shared" ref="I61:I62" si="72">G61-E61</f>
         <v>30.349000000000004</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ref="J61:J62" si="56">H61-F61</f>
+        <f t="shared" ref="J61:J62" si="73">H61-F61</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="K61" s="1">
@@ -3768,15 +3768,15 @@
         <v>5.1714696000000018</v>
       </c>
       <c r="Q61" s="3">
-        <f>K61-P61</f>
+        <f t="shared" ref="Q61:Q66" si="74">K61-P61</f>
         <v>3.8285303999999982</v>
       </c>
       <c r="R61" s="3">
-        <f>Q61/K61*100</f>
+        <f t="shared" ref="R61:R66" si="75">Q61/K61*100</f>
         <v>42.539226666666643</v>
       </c>
       <c r="S61" s="3">
-        <f>Q61/B61</f>
+        <f t="shared" ref="S61:S66" si="76">Q61/B61</f>
         <v>1.9142651999999991</v>
       </c>
       <c r="T61" s="3"/>
@@ -3796,7 +3796,7 @@
         <v>200000000</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="71"/>
         <v>200000000</v>
       </c>
       <c r="E62" s="3">
@@ -3812,11 +3812,11 @@
         <v>3.8400000000000001E-3</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="72"/>
         <v>57.581999999999994</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="56"/>
+        <f t="shared" si="73"/>
         <v>3.7500000000000003E-3</v>
       </c>
       <c r="K62" s="1">
@@ -3832,15 +3832,15 @@
         <v>9.8119727999999995</v>
       </c>
       <c r="Q62" s="3">
-        <f>K62-P62</f>
+        <f t="shared" si="74"/>
         <v>3.6880272000000023</v>
       </c>
       <c r="R62" s="3">
-        <f>Q62/K62*100</f>
+        <f t="shared" si="75"/>
         <v>27.318720000000013</v>
       </c>
       <c r="S62" s="3">
-        <f>Q62/B62</f>
+        <f t="shared" si="76"/>
         <v>3.6880272000000023</v>
       </c>
       <c r="T62" s="3"/>
@@ -3857,7 +3857,7 @@
         <v>100000000</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" ref="D63:D66" si="57">B63*C63</f>
+        <f t="shared" ref="D63:D66" si="77">B63*C63</f>
         <v>200000000</v>
       </c>
       <c r="E63" s="3">
@@ -3873,15 +3873,15 @@
         <v>3.4499999999999999E-3</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" ref="I63:I66" si="58">G63-E63</f>
+        <f t="shared" ref="I63:I66" si="78">G63-E63</f>
         <v>59.197000000000003</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" ref="J63:J66" si="59">H63-F63</f>
+        <f t="shared" ref="J63:J66" si="79">H63-F63</f>
         <v>3.3699999999999997E-3</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" ref="K63:K66" si="60">J63*3600</f>
+        <f t="shared" ref="K63:K66" si="80">J63*3600</f>
         <v>12.132</v>
       </c>
       <c r="L63" s="3"/>
@@ -3899,15 +3899,15 @@
         <v>8.3119174802531557</v>
       </c>
       <c r="Q63" s="3">
-        <f>K63-P63</f>
+        <f t="shared" si="74"/>
         <v>3.820082519746844</v>
       </c>
       <c r="R63" s="3">
-        <f>Q63/K63*100</f>
+        <f t="shared" si="75"/>
         <v>31.487656773383154</v>
       </c>
       <c r="S63" s="3">
-        <f>Q63/B63</f>
+        <f t="shared" si="76"/>
         <v>1.910041259873422</v>
       </c>
       <c r="T63" s="3"/>
@@ -3927,7 +3927,7 @@
         <v>200000000</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v>200000000</v>
       </c>
       <c r="E64" s="3">
@@ -3943,15 +3943,15 @@
         <v>5.6499999999999996E-3</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="78"/>
         <v>115.32</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="79"/>
         <v>5.5699999999999994E-3</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="80"/>
         <v>20.052</v>
       </c>
       <c r="L64" s="3"/>
@@ -3962,15 +3962,15 @@
         <v>16.192211156355793</v>
       </c>
       <c r="Q64" s="3">
-        <f>K64-P64</f>
+        <f t="shared" si="74"/>
         <v>3.8597888436442069</v>
       </c>
       <c r="R64" s="3">
-        <f>Q64/K64*100</f>
+        <f t="shared" si="75"/>
         <v>19.24889708579796</v>
       </c>
       <c r="S64" s="3">
-        <f>Q64/B64</f>
+        <f t="shared" si="76"/>
         <v>3.8597888436442069</v>
       </c>
       <c r="T64" s="3"/>
@@ -3987,7 +3987,7 @@
         <v>100000000</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v>200000000</v>
       </c>
       <c r="E65" s="3">
@@ -4003,15 +4003,15 @@
         <v>2.31E-3</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="78"/>
         <v>19.660000000000004</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="79"/>
         <v>2.2200000000000002E-3</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="80"/>
         <v>7.9920000000000009</v>
       </c>
       <c r="L65" s="3"/>
@@ -4029,15 +4029,15 @@
         <v>4.0687176634214195</v>
       </c>
       <c r="Q65" s="3">
-        <f>K65-P65</f>
+        <f t="shared" si="74"/>
         <v>3.9232823365785814</v>
       </c>
       <c r="R65" s="3">
-        <f>Q65/K65*100</f>
+        <f t="shared" si="75"/>
         <v>49.09011932655882</v>
       </c>
       <c r="S65" s="3">
-        <f>Q65/B65</f>
+        <f t="shared" si="76"/>
         <v>1.9616411682892907</v>
       </c>
       <c r="T65" s="3"/>
@@ -4057,7 +4057,7 @@
         <v>200000000</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="77"/>
         <v>200000000</v>
       </c>
       <c r="E66" s="3">
@@ -4073,15 +4073,15 @@
         <v>3.3899999999999998E-3</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="78"/>
         <v>38.383000000000003</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="59"/>
+        <f t="shared" si="79"/>
         <v>3.3E-3</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="80"/>
         <v>11.88</v>
       </c>
       <c r="L66" s="3"/>
@@ -4093,15 +4093,15 @@
         <v>7.9435193324061197</v>
       </c>
       <c r="Q66" s="3">
-        <f>K66-P66</f>
+        <f t="shared" si="74"/>
         <v>3.936480667593881</v>
       </c>
       <c r="R66" s="3">
-        <f>Q66/K66*100</f>
+        <f t="shared" si="75"/>
         <v>33.135359154830645</v>
       </c>
       <c r="S66" s="3">
-        <f>Q66/B66</f>
+        <f t="shared" si="76"/>
         <v>3.936480667593881</v>
       </c>
       <c r="T66" s="3"/>

--- a/February/0222/result1.xlsx
+++ b/February/0222/result1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Research\February\0222\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD866300-430A-4610-9684-655105B50111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABFA17B-D1A8-4AEB-9F99-BA3FD221D97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7180" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1022,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ref="K13:K14" si="2">J13*3600</f>
+        <f>J13*3600</f>
         <v>2.7719999999999998</v>
       </c>
       <c r="L13" s="3"/>
@@ -1040,20 +1040,20 @@
         <v>1.4913407999999999</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" ref="Q13:Q18" si="3">K13-P13</f>
+        <f t="shared" ref="Q13:Q18" si="2">K13-P13</f>
         <v>1.2806591999999999</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ref="R13:R14" si="4">Q13/K13*100</f>
+        <f t="shared" ref="R13:R14" si="3">Q13/K13*100</f>
         <v>46.199826839826841</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" ref="S13:S18" si="5">Q13/B13</f>
+        <f t="shared" ref="S13:S18" si="4">Q13/B13</f>
         <v>0.64032959999999994</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3">
-        <f t="shared" ref="U13:U15" si="6">($S$14-S13)/$S$14*100</f>
+        <f t="shared" ref="U13:U15" si="5">($S$14-S13)/$S$14*100</f>
         <v>50.767993032336179</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K13:K14" si="6">J14*3600</f>
         <v>4.2840000000000007</v>
       </c>
       <c r="L14" s="3"/>
@@ -1104,15 +1104,15 @@
         <v>2.9833632000000003</v>
       </c>
       <c r="Q14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3006368000000004</v>
+      </c>
+      <c r="R14" s="3">
         <f t="shared" si="3"/>
-        <v>1.3006368000000004</v>
-      </c>
-      <c r="R14" s="3">
+        <v>30.360336134453785</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="4"/>
-        <v>30.360336134453785</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="5"/>
         <v>1.3006368000000004</v>
       </c>
       <c r="T14" s="3"/>
@@ -1171,7 +1171,7 @@
         <v>2.4637940440563217</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3162059559436781</v>
       </c>
       <c r="R15" s="3">
@@ -1179,12 +1179,12 @@
         <v>34.820263384753389</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.65810297797183903</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49.401479492826986</v>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>4.9267456213511283</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3732543786488716</v>
       </c>
       <c r="R16" s="3">
@@ -1243,7 +1243,7 @@
         <v>21.797688549982087</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.3732543786488716</v>
       </c>
       <c r="T16" s="3"/>
@@ -1302,7 +1302,7 @@
         <v>1.2073702364394991</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3486297635605009</v>
       </c>
       <c r="R17" s="3">
@@ -1310,7 +1310,7 @@
         <v>52.763292784057157</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.67431488178025045</v>
       </c>
       <c r="T17" s="3"/>
@@ -1366,7 +1366,7 @@
         <v>2.412877885952712</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.4031221140472878</v>
       </c>
       <c r="R18" s="3">
@@ -1374,7 +1374,7 @@
         <v>36.769447433105029</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4031221140472878</v>
       </c>
       <c r="T18" s="3"/>
